--- a/biology/Mycologie/Hypholome_en_touffe/Hypholome_en_touffe.xlsx
+++ b/biology/Mycologie/Hypholome_en_touffe/Hypholome_en_touffe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypholome en touffe
-Hypholoma fasciculare, l’Hypholome en touffe[1], Géophile, Nématolome en touffes ou Hypholome fasciculé[réf. nécessaire], est une espèce de champignons basidiomycètes de la famille des Strophariaceae.
+Hypholoma fasciculare, l’Hypholome en touffe, Géophile, Nématolome en touffes ou Hypholome fasciculé[réf. nécessaire], est une espèce de champignons basidiomycètes de la famille des Strophariaceae.
 Son épithète spécifique, dérivée du latin fasces, « faisceau », fait référence aux bouquets réunis par la base qu'il forme.
 C'est l'un des champignons les plus courants en Europe. Le plus fréquent par exemple en Grande-Bretagne selon Ronald Rayner (d) de la British Mycological Society avec une présence dans la moitié des observations[réf. nécessaire].
 </t>
@@ -514,7 +526,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau de 3 à 7 cm, globuleux puis longtemps convexe avant de s'aplanir.
 Cuticule jaune soufre à brun clair, plus foncé au centre
@@ -552,9 +566,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hypholome pousse pratiquement toute l'année, sur les souches ou les racines de feuillus (hêtres) ou de conifères (épicéas, pins). Il forme, comme son nom l'indique, des touffes de plusieurs individus soudés entre eux par le pied. Champignon saprotrophe, il est responsable de la pourriture blanche[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hypholome pousse pratiquement toute l'année, sur les souches ou les racines de feuillus (hêtres) ou de conifères (épicéas, pins). Il forme, comme son nom l'indique, des touffes de plusieurs individus soudés entre eux par le pied. Champignon saprotrophe, il est responsable de la pourriture blanche.
 </t>
         </is>
       </c>
@@ -583,7 +599,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre son amertume, l'hypholome fasciculé est un champignon vénéneux contenant en faible dose des toxines communes avec l'amanite phalloïde et pouvant pour le moins causer un syndrome gastro-intestinal.
 </t>
@@ -614,9 +632,11 @@
           <t>Espèces proches et confusions possibles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe de nombreuses espèces d'Hypholomes proches, dont Hypholoma capnoides aux lames blanches puis gris-pourpres, qui est comestible, Hypholoma sublateritium aux lames blanches puis gris-brun, également toxique, et Hypholoma epixanthum, à la couleur de brique et vénéneux[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe de nombreuses espèces d'Hypholomes proches, dont Hypholoma capnoides aux lames blanches puis gris-pourpres, qui est comestible, Hypholoma sublateritium aux lames blanches puis gris-brun, également toxique, et Hypholoma epixanthum, à la couleur de brique et vénéneux.
 Les débutants pourront également le confondre avec des Pholiotes, généralement plus écailleuses, ou des Collybies en fuseau, comestibles, dont les pieds ne sont pas soudés entre eux et présentent une forme et des cannelures caractéristiques. Un bon critère de détermination de l'hypholome est l'aspect de ses lames, très serrées et (du moins pour l'espèce-type fasciculare) d'un peu appétissant jaune verdâtre. L'hypholome en touffe dégage une odeur désagréable, comme iodée ou soufrée.
 À titre général, il est recommandé la plus grande prudence avec les champignons en touffes (cespiteux ou fasciculés).
 </t>
@@ -649,15 +669,54 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Formes
-Selon MycoBank                                            (22 janvier 2023)[4] :
+          <t>Formes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (22 janvier 2023) :
 Hypholoma fasciculare f. ceratophorum Pilát, 1927
 Hypholoma fasciculare f. fasciculare
 Hypholoma fasciculare f. foedinarum Pilát, 1927
 Hypholoma fasciculare f. radicata Killerm., 1939
-Hypholoma fasciculare f. sterilis J.E.Lange, 1923
-Variétés
-Selon MycoBank                                            (22 janvier 2023)[4] :
+Hypholoma fasciculare f. sterilis J.E.Lange, 1923</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hypholome_en_touffe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypholome_en_touffe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des formes et variétés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (22 janvier 2023) :
 Hypholoma fasciculare var. armeniacum (Y.S.Chang &amp; A.K.Mills) Y.S.Chang, A.K.Mills, G.M.Gates &amp; Ratkowsky, 2013
 Hypholoma fasciculare var. fasciculare
 Hypholoma fasciculare var. fasciculare
@@ -670,36 +729,38 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Hypholome_en_touffe</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hypholome_en_touffe</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Hypholoma fasciculare (Huds.) P.Kumm., 1871[4],[5].
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus fascicularis Huds., 1778[4].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Hypholome en touffe[1].
-Hypholoma fasciculare a pour synonymes[4] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Hypholoma fasciculare (Huds.) P.Kumm., 1871,.
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus fascicularis Huds., 1778.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Hypholome en touffe.
+Hypholoma fasciculare a pour synonymes :
 Agaricus fascicularis Huds., 1778
 Dryophila fascicularis (Huds.) Quél., 1888
 Geophila fascicularis var. fascicularis (Huds.) Quél., 1886
@@ -713,31 +774,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Hypholome_en_touffe</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hypholome_en_touffe</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>(de) Paul Kummer, Der Führer in die Pilzkunde : Anleitung zum methodischen, leichten und sichern Bestimmen der in Deutschland vorkommenden Pilze : mit Ausnahme der Schimmel- und allzu winzigen Schleim- und Kern-Pilzchen, Zerbst, 1871, 146 p. (DOI 10.5962/BHL.TITLE.50494, lire en ligne)</t>
         </is>
